--- a/01_Documentacion/G4_DiagramaProcesos10Niveles_U1T1V1.xlsx
+++ b/01_Documentacion/G4_DiagramaProcesos10Niveles_U1T1V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mackbookandres/Desktop/01_Documentacion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a1e14b4b4f6b420/Documentos/GitHub/2567_G4_ACSW/01_Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6CA1A-8069-434B-90C6-42924B92C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DBD6CA1A-8069-434B-90C6-42924B92C642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D403FC18-DA45-4BDD-B098-C5C7BBB7CE4B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{05AC8D40-0673-44FF-B842-F2CFFFBC4894}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{05AC8D40-0673-44FF-B842-F2CFFFBC4894}"/>
   </bookViews>
   <sheets>
     <sheet name="MP14niveles" sheetId="1" r:id="rId1"/>
@@ -1892,15 +1892,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>119287</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>174789</xdr:rowOff>
+      <xdr:colOff>1384207</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>75729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>644643</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>160392</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>126483</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>61332</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1915,8 +1915,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15661846" y="9464465"/>
-          <a:ext cx="525356" cy="523486"/>
+          <a:off x="16974727" y="9715029"/>
+          <a:ext cx="525356" cy="534243"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -3354,8 +3354,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13808934" y="5908264"/>
-          <a:ext cx="422611" cy="2465070"/>
+          <a:off x="12500834" y="5707604"/>
+          <a:ext cx="422611" cy="2366010"/>
           <a:chOff x="10126135" y="5820833"/>
           <a:chExt cx="533399" cy="2741084"/>
         </a:xfrm>
@@ -3798,8 +3798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4308028" y="8658882"/>
-          <a:ext cx="1320495" cy="1144906"/>
+          <a:off x="3873688" y="8351542"/>
+          <a:ext cx="1320495" cy="1099186"/>
           <a:chOff x="9535756" y="2889558"/>
           <a:chExt cx="589065" cy="1250805"/>
         </a:xfrm>
@@ -5172,8 +5172,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14557892" y="8568267"/>
-          <a:ext cx="1543216" cy="1247810"/>
+          <a:off x="13092312" y="8260927"/>
+          <a:ext cx="1482256" cy="1194470"/>
           <a:chOff x="9535756" y="2775262"/>
           <a:chExt cx="589065" cy="1360745"/>
         </a:xfrm>
@@ -5510,8 +5510,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18520698" y="8314267"/>
-          <a:ext cx="1357922" cy="1337749"/>
+          <a:off x="16775718" y="8014547"/>
+          <a:ext cx="1139482" cy="1284409"/>
           <a:chOff x="9535756" y="2677183"/>
           <a:chExt cx="589065" cy="1458824"/>
         </a:xfrm>
@@ -6110,8 +6110,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16138339" y="5928098"/>
-          <a:ext cx="422611" cy="2468880"/>
+          <a:off x="14611799" y="5727438"/>
+          <a:ext cx="422611" cy="2369820"/>
           <a:chOff x="10126135" y="5820833"/>
           <a:chExt cx="533399" cy="2741084"/>
         </a:xfrm>
@@ -6313,8 +6313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6582718" y="8587508"/>
-          <a:ext cx="1471771" cy="1180584"/>
+          <a:off x="5929938" y="8280168"/>
+          <a:ext cx="1314291" cy="1134864"/>
           <a:chOff x="9537923" y="2839565"/>
           <a:chExt cx="589065" cy="1296442"/>
         </a:xfrm>
@@ -7125,8 +7125,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20243664" y="8307917"/>
-          <a:ext cx="1355806" cy="1337749"/>
+          <a:off x="18280244" y="8008197"/>
+          <a:ext cx="1157686" cy="1284409"/>
           <a:chOff x="9535756" y="2677183"/>
           <a:chExt cx="589065" cy="1458824"/>
         </a:xfrm>
@@ -7483,7 +7483,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2269"/>
+                  <a14:cameraTool cellRange="MP14niveles!$C$9:$AY$85" spid="_x0000_s2271"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7524,7 +7524,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -7825,14 +7825,14 @@
   </sheetPr>
   <dimension ref="C12:AY86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F40" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="2.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
     <col min="5" max="5" width="2.6640625" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
@@ -7865,10 +7865,10 @@
     <col min="56" max="56" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="3:51" ht="8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:51" ht="7.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:51" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:51" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
@@ -7921,7 +7921,7 @@
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
     </row>
-    <row r="86" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C13:AY13"/>
@@ -7941,7 +7941,7 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -7951,6 +7951,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b36d5ce4-fb93-4e20-ac5f-77871f6a1f70" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B370B9D439DDE546813D90F3B8B4DBAB" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="512b45069a73f00acf967ec99d7533f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b36d5ce4-fb93-4e20-ac5f-77871f6a1f70" xmlns:ns4="a8c64c2c-2712-4198-95b2-d256c44e1621" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5eb5ad93516d041cc0acfadbac38bba" ns3:_="" ns4:_="">
     <xsd:import namespace="b36d5ce4-fb93-4e20-ac5f-77871f6a1f70"/>
@@ -8197,14 +8205,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b36d5ce4-fb93-4e20-ac5f-77871f6a1f70" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8215,6 +8215,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E070C3-B3EF-4CFE-A975-5E4131163DC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b36d5ce4-fb93-4e20-ac5f-77871f6a1f70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9E52A94-29CD-49E2-93D5-AA07EA39528B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8233,16 +8243,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7E070C3-B3EF-4CFE-A975-5E4131163DC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b36d5ce4-fb93-4e20-ac5f-77871f6a1f70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C8F17B7-1194-404B-B4BE-AE81FE298C94}">
   <ds:schemaRefs>
